--- a/HADDOCK_Results/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results/HADDOCK_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Desktop/Research/BA.2.86/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8A6755A-0E0E-9B4D-A76A-B52499B4E356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235CE4EC-5B3E-D04C-B417-5A7CC7F3180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -351,40 +351,70 @@
     <t>7x2h_chainsHL_renumberedDplus1000.pdb</t>
   </si>
   <si>
-    <t>&lt;YOUR PREDICTED RBD&gt;</t>
-  </si>
-  <si>
-    <t>`343,372,373,436,437,439,440,444,499,503,508</t>
-  </si>
-  <si>
-    <t>7z2h_WT</t>
-  </si>
-  <si>
-    <t>7z2h-BA_2_86</t>
-  </si>
-  <si>
     <t>WT</t>
   </si>
   <si>
-    <t>28,29,30,31,32,
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>BA.2</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>BA_2_renumbered_and_relaxed.pdb</t>
+  </si>
+  <si>
+    <t>BA.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,27,28,29,30,31,32,
+52,53,54,55,56,57,
 74,75,76,
-87,88,89,90,91,
-165,166,167,
-194,195,196,197,198,
-210,211,212,213,
-1079,1080,1081,1082,1083,
-1121,1122,1123,1124,1125,1126,
-1183,1184,1185,1186,1187,1188</t>
-  </si>
-  <si>
-    <t>Yes</t>
+100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,
+1026,1027,1028,1029,1030,1031,1032,
+1050,1051,
+1055,1056,1057,1058,1059,1060,1061,
+1066,1067,1068,1069,
+1091,1092,1093,1094,1095
+</t>
+  </si>
+  <si>
+    <t>343,372,373,436,437,439,440,444,499,503,508</t>
+  </si>
+  <si>
+    <t>7z2h_WT_UPDATED1</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,
+52,53,54,55,56,57,
+74,75,76,
+100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,
+1026,1027,1028,1029,1030,1031,1032,
+1050,1051,
+1055,1056,1057,1058,1059,1060,1061,
+1066,1067,1068,1069,
+1091,1092,1093,1094,1095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA_286_relaxed_renumbered.pdb </t>
+  </si>
+  <si>
+    <t>7z2h-BA_2_86_UPDATED_1</t>
+  </si>
+  <si>
+    <t>7x2h_XBB_1_5_UPDATED1</t>
+  </si>
+  <si>
+    <t>7x1h_BA2_UPDATED1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -435,6 +465,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -523,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -590,15 +626,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,11 +962,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,7 +979,7 @@
     <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="46" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="42.5" style="1" bestFit="1" customWidth="1"/>
@@ -1071,8 +1108,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="192" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:33" ht="224" x14ac:dyDescent="0.15">
+      <c r="A2" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1085,26 +1122,26 @@
         <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>106</v>
+      <c r="G2" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I2" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:33" ht="192" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="256" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>101</v>
       </c>
@@ -1112,10 +1149,10 @@
         <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>99</v>
@@ -1124,191 +1161,244 @@
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="256" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="224" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D6" s="11"/>
       <c r="F6" s="11"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>
       <c r="F7" s="11"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="25"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D8" s="11"/>
       <c r="F8" s="11"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D9" s="11"/>
       <c r="F9" s="11"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D10" s="11"/>
       <c r="F10" s="11"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D11" s="11"/>
       <c r="F11" s="11"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="25"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="25"/>
+      <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H13" s="4"/>
-      <c r="I13" s="25"/>
+      <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H14" s="4"/>
-      <c r="I14" s="25"/>
+      <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H15" s="4"/>
-      <c r="I15" s="25"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="H16" s="4"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H17" s="4"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H18" s="4"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H19" s="4"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H20" s="4"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H21" s="4"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="23"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H23" s="4"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H24" s="4"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H25" s="4"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H26" s="4"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H27" s="4"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H28" s="4"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H29" s="4"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H30" s="4"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H31" s="4"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H32" s="4"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H33" s="4"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="4"/>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H34" s="4"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="4"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H35" s="4"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="4"/>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H36" s="4"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H37" s="4"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H38" s="4"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H39" s="4"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="4"/>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H40" s="4"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="4"/>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H41" s="4"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AG41" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}"/>
-  <mergeCells count="1">
-    <mergeCell ref="I2:I15"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/HADDOCK_Results/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results/HADDOCK_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Desktop/Research/BA.2.86/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235CE4EC-5B3E-D04C-B417-5A7CC7F3180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F98863-2BD9-E04E-A311-0B6A271C6E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="123">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>7x1h_BA2_UPDATED1</t>
+  </si>
+  <si>
+    <t>P3E6</t>
+  </si>
+  <si>
+    <t>500, 499, 439, 443, 444, 440,345</t>
+  </si>
+  <si>
+    <t>7ykj_bivalent.pdb</t>
+  </si>
+  <si>
+    <t>BA_1_7ykj_default.pdb</t>
+  </si>
+  <si>
+    <t>7ykj_AB_BA_1_default</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,73,74,75,76,77,100,101,102,103,104,105,106,107,1025,1026,1027,1028,1029,1030,1031,1032,1051,1052,1053,1069,1070,1089,1090,1091,1092,1093,1094,1095,1096,1097</t>
   </si>
 </sst>
 </file>
@@ -963,10 +981,10 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1245,11 +1263,32 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D7" s="11"/>
+    <row r="7" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="F7" s="11"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D8" s="11"/>

--- a/HADDOCK_Results/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results/HADDOCK_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Desktop/Research/BA.2.86/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F98863-2BD9-E04E-A311-0B6A271C6E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A29A836-28FB-7249-B77C-C091A02C2A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="139">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -339,9 +339,6 @@
     <t>BA.2.86</t>
   </si>
   <si>
-    <t>7x2h_chainF_RBD.pdb</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
   </si>
   <si>
     <t>BA.2</t>
-  </si>
-  <si>
-    <t>same</t>
   </si>
   <si>
     <t>BA_2_renumbered_and_relaxed.pdb</t>
@@ -384,9 +378,6 @@
     <t>343,372,373,436,437,439,440,444,499,503,508</t>
   </si>
   <si>
-    <t>7z2h_WT_UPDATED1</t>
-  </si>
-  <si>
     <t>26,27,28,29,30,31,32,
 52,53,54,55,56,57,
 74,75,76,
@@ -407,34 +398,98 @@
     <t>7x2h_XBB_1_5_UPDATED1</t>
   </si>
   <si>
-    <t>7x1h_BA2_UPDATED1</t>
-  </si>
-  <si>
     <t>P3E6</t>
   </si>
   <si>
-    <t>500, 499, 439, 443, 444, 440,345</t>
-  </si>
-  <si>
     <t>7ykj_bivalent.pdb</t>
   </si>
   <si>
     <t>BA_1_7ykj_default.pdb</t>
   </si>
   <si>
-    <t>7ykj_AB_BA_1_default</t>
-  </si>
-  <si>
     <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,73,74,75,76,77,100,101,102,103,104,105,106,107,1025,1026,1027,1028,1029,1030,1031,1032,1051,1052,1053,1069,1070,1089,1090,1091,1092,1093,1094,1095,1096,1097</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,73,74,75,76,77,100,101,102,103,104,105,106,107,1025,1026,1027,1028,1029,1030,1031,1032,1051,1052,1053,1069,1070,1089,1090,1091,1092,1093,1094,1095,1096,1097'</t>
+  </si>
+  <si>
+    <t>500,439,443,444,440,345'</t>
+  </si>
+  <si>
+    <t>7ykj_AB_BA_1_default_updated</t>
+  </si>
+  <si>
+    <t>XBB_1_5_7ykj_updated</t>
+  </si>
+  <si>
+    <t>BA_2_7ykj_updated</t>
+  </si>
+  <si>
+    <t>497, 438, 442, 443, 439, 345'</t>
+  </si>
+  <si>
+    <t>BA_286_7ykj_updated</t>
+  </si>
+  <si>
+    <t>7ykj_bivalent_WT_dock</t>
+  </si>
+  <si>
+    <t>500, 439, 443, 444, 345'</t>
+  </si>
+  <si>
+    <t>7x2h_chainF_RBD (1) .pdb</t>
+  </si>
+  <si>
+    <t>273966-7ykj_bivalent_WT_dock.tgz</t>
+  </si>
+  <si>
+    <t>273965-BA_286_7ykj_updated.tgz</t>
+  </si>
+  <si>
+    <t>273964-BA_2_7ykj_updated.tgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">273962-XBB_1_5_7ykj_updated.tgz	</t>
+  </si>
+  <si>
+    <t>273961-7ykj_AB_BA_1_default_updated.tgz</t>
+  </si>
+  <si>
+    <t>7z2h_BA2_UPDATED1</t>
+  </si>
+  <si>
+    <t>272230-7z2h_BA2_UPDATED1.tgz</t>
+  </si>
+  <si>
+    <t>272229-7z2h_XBB_1_5_UPDATED1.tgz</t>
+  </si>
+  <si>
+    <t>272227-7z2h-BA_2_86_UPDATED_1.tgz</t>
+  </si>
+  <si>
+    <t>7z2h_WT_UPDATED1_1</t>
+  </si>
+  <si>
+    <t>7x2h_chainF_RBD (1).pdb</t>
+  </si>
+  <si>
+    <t>7x2h_BA_1_UPDATED1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -577,74 +632,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
@@ -653,7 +708,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,11 +1038,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1128,10 +1186,10 @@
     </row>
     <row r="2" spans="1:33" ht="224" x14ac:dyDescent="0.15">
       <c r="A2" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>98</v>
@@ -1140,63 +1198,116 @@
         <v>98</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="11">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-95.2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-3.2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-84.5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-158.19999999999999</v>
+      </c>
+      <c r="U2" s="1">
+        <v>13.5</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-29</v>
+      </c>
+      <c r="W2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X2" s="1">
+        <v>499.9</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2103.6999999999998</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>27.8</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="256" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="1:33" ht="256" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I3" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
@@ -1209,110 +1320,584 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-82.3</v>
+      </c>
+      <c r="N4" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="O4" s="1">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-64.2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-240.6</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="V4" s="1">
+        <v>-11.6</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>415.9</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2037.6</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-90.7</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>48</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-68.8</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-216.4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-16</v>
+      </c>
+      <c r="W5" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="X5" s="1">
+        <v>374.5</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>52.5</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2209.6999999999998</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>47.6</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="224" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:33" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-94.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>137</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-61.6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-236</v>
+      </c>
+      <c r="U7" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-1.6</v>
+      </c>
+      <c r="W7" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="X7" s="1">
+        <v>161.80000000000001</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>26.1</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1678.9</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="1">
+        <v>-70.3</v>
+      </c>
+      <c r="N8" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="O8" s="1">
+        <v>103</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-54.3</v>
+      </c>
+      <c r="S8" s="1">
+        <v>9</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-181.9</v>
+      </c>
+      <c r="U8" s="1">
+        <v>63.1</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-10.7</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>54.3</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1567.8</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H9" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="1">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="N9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-54.2</v>
+      </c>
+      <c r="S9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-238.9</v>
+      </c>
+      <c r="U9" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-0.6</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="X9" s="1">
+        <v>247</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>45.5</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1614.1</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>24.9</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="D11" s="11"/>
+      <c r="J10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="M10" s="1">
+        <v>-70.599999999999994</v>
+      </c>
+      <c r="N10" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>9</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-52.4</v>
+      </c>
+      <c r="S10" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-193.4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-4.3</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="X10" s="1">
+        <v>248.8</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1555.4</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>123.3</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" ht="160" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="F11" s="11"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M11" s="1">
+        <v>-71.5</v>
+      </c>
+      <c r="N11" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-65.8</v>
+      </c>
+      <c r="S11" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-119.6</v>
+      </c>
+      <c r="U11" s="1">
+        <v>23.8</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-7.9</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="X11" s="1">
+        <v>261</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>52.8</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1704.3</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>28.3</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:33" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
@@ -1438,7 +2023,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AG41" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/HADDOCK_Results/HADDOCK_Results.xlsx
+++ b/HADDOCK_Results/HADDOCK_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/syasa/Desktop/Research/BA.2.86/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A29A836-28FB-7249-B77C-C091A02C2A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFD5DAF-6449-CC47-BB21-7B7A7A683373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="-72840" yWindow="0" windowWidth="21860" windowHeight="19080" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="141">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>7x2h_BA_1_UPDATED1</t>
+  </si>
+  <si>
+    <t>273992-7z2h_WT_UPDATED1_1.tar</t>
+  </si>
+  <si>
+    <t>273993-7x2h_BA_1_UPDATED1.tar</t>
   </si>
 </sst>
 </file>
@@ -1039,10 +1045,10 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1301,6 +1307,60 @@
       <c r="J3" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-106.4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>145</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-86.1</v>
+      </c>
+      <c r="S3" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-205.8</v>
+      </c>
+      <c r="U3" s="1">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-20</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="X3" s="1">
+        <v>409.2</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>46.9</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2267.1</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="4" spans="1:33" ht="256" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -1496,6 +1556,63 @@
       <c r="I6" s="26" t="s">
         <v>108</v>
       </c>
+      <c r="J6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-73.3</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7</v>
+      </c>
+      <c r="P6" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-54.9</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-229.4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>15</v>
+      </c>
+      <c r="V6" s="1">
+        <v>20</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="X6" s="1">
+        <v>473.9</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1965.3</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>136.9</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>-1.2</v>
+      </c>
     </row>
     <row r="7" spans="1:33" ht="160" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -1573,6 +1690,9 @@
       </c>
       <c r="AA7" s="1">
         <v>25.2</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="160" x14ac:dyDescent="0.2">
